--- a/data-migration/xlsx_1900-/1905_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1905_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A559B-576C-4142-9BD0-98CAD50DB79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF3D47-7B04-42EA-B0A9-6912827BCBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3320,9 +3320,6 @@
     <t>huber_m</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>schaer_jf</t>
   </si>
   <si>
@@ -3378,6 +3375,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -3721,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F148" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4484,7 +4484,7 @@
         <v>765</v>
       </c>
       <c r="H29" t="s">
-        <v>1095</v>
+        <v>1114</v>
       </c>
       <c r="I29" t="s">
         <v>1087</v>
@@ -5198,7 +5198,7 @@
         <v>791</v>
       </c>
       <c r="H56" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I56" t="s">
         <v>1086</v>
@@ -5224,7 +5224,7 @@
         <v>792</v>
       </c>
       <c r="H57" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I57" t="s">
         <v>1086</v>
@@ -5250,7 +5250,7 @@
         <v>793</v>
       </c>
       <c r="H58" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I58" t="s">
         <v>1086</v>
@@ -5276,7 +5276,7 @@
         <v>794</v>
       </c>
       <c r="H59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I59" t="s">
         <v>1086</v>
@@ -5617,7 +5617,7 @@
         <v>803</v>
       </c>
       <c r="H72" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I72" t="s">
         <v>1086</v>
@@ -5643,7 +5643,7 @@
         <v>804</v>
       </c>
       <c r="H73" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I73" t="s">
         <v>1086</v>
@@ -5669,7 +5669,7 @@
         <v>805</v>
       </c>
       <c r="H74" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I74" t="s">
         <v>1086</v>
@@ -5695,7 +5695,7 @@
         <v>806</v>
       </c>
       <c r="H75" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="I75" t="s">
         <v>1086</v>
@@ -6140,7 +6140,7 @@
         <v>816</v>
       </c>
       <c r="H92" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I92" t="s">
         <v>1086</v>
@@ -6166,7 +6166,7 @@
         <v>817</v>
       </c>
       <c r="H93" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I93" t="s">
         <v>1086</v>
@@ -6319,7 +6319,7 @@
         <v>821</v>
       </c>
       <c r="H99" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I99" t="s">
         <v>1086</v>
@@ -6348,7 +6348,7 @@
         <v>822</v>
       </c>
       <c r="H100" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I100" t="s">
         <v>1086</v>
@@ -6377,7 +6377,7 @@
         <v>823</v>
       </c>
       <c r="H101" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I101" t="s">
         <v>1086</v>
@@ -6406,7 +6406,7 @@
         <v>824</v>
       </c>
       <c r="H102" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I102" t="s">
         <v>1086</v>
@@ -6435,7 +6435,7 @@
         <v>809</v>
       </c>
       <c r="H103" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I103" t="s">
         <v>1086</v>
@@ -6932,7 +6932,7 @@
         <v>836</v>
       </c>
       <c r="H122" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="I122" t="s">
         <v>1086</v>
@@ -6958,7 +6958,7 @@
         <v>750</v>
       </c>
       <c r="H123" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I123" t="s">
         <v>1087</v>
@@ -7036,7 +7036,7 @@
         <v>750</v>
       </c>
       <c r="H126" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I126" t="s">
         <v>1087</v>
@@ -7062,7 +7062,7 @@
         <v>818</v>
       </c>
       <c r="H127" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I127" t="s">
         <v>1087</v>
@@ -7250,7 +7250,7 @@
         <v>1087</v>
       </c>
       <c r="K134" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L134" t="s">
         <v>1087</v>
@@ -7516,7 +7516,7 @@
         <v>1086</v>
       </c>
       <c r="J144" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -7545,7 +7545,7 @@
         <v>1086</v>
       </c>
       <c r="J145" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -7568,7 +7568,7 @@
         <v>745</v>
       </c>
       <c r="H146" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I146" t="s">
         <v>1087</v>
@@ -7594,7 +7594,7 @@
         <v>741</v>
       </c>
       <c r="H147" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="I147" t="s">
         <v>1087</v>
@@ -7620,7 +7620,7 @@
         <v>849</v>
       </c>
       <c r="H148" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I148" t="s">
         <v>1087</v>
@@ -7646,7 +7646,7 @@
         <v>745</v>
       </c>
       <c r="H149" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I149" t="s">
         <v>1087</v>
@@ -7854,7 +7854,7 @@
         <v>745</v>
       </c>
       <c r="H157" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I157" t="s">
         <v>1087</v>
@@ -7880,7 +7880,7 @@
         <v>750</v>
       </c>
       <c r="H158" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I158" t="s">
         <v>1087</v>
@@ -7909,7 +7909,7 @@
         <v>1018</v>
       </c>
       <c r="I159" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -7935,7 +7935,7 @@
         <v>1018</v>
       </c>
       <c r="I160" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7961,7 +7961,7 @@
         <v>1018</v>
       </c>
       <c r="I161" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -7987,7 +7987,7 @@
         <v>1019</v>
       </c>
       <c r="I162" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
         <v>1019</v>
       </c>
       <c r="I163" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8039,7 +8039,7 @@
         <v>1019</v>
       </c>
       <c r="I164" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8065,7 +8065,7 @@
         <v>1019</v>
       </c>
       <c r="I165" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8088,10 +8088,10 @@
         <v>861</v>
       </c>
       <c r="H166" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I166" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8114,10 +8114,10 @@
         <v>862</v>
       </c>
       <c r="H167" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="I167" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9146,10 +9146,10 @@
         <v>896</v>
       </c>
       <c r="H206" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I206" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9484,7 +9484,7 @@
         <v>899</v>
       </c>
       <c r="H219" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I219" t="s">
         <v>1087</v>
@@ -9510,7 +9510,7 @@
         <v>743</v>
       </c>
       <c r="H220" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I220" t="s">
         <v>1087</v>
@@ -9796,7 +9796,7 @@
         <v>908</v>
       </c>
       <c r="H231" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I231" t="s">
         <v>1086</v>
@@ -9822,7 +9822,7 @@
         <v>772</v>
       </c>
       <c r="H232" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I232" t="s">
         <v>1086</v>
@@ -9874,7 +9874,7 @@
         <v>909</v>
       </c>
       <c r="H234" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I234" t="s">
         <v>1086</v>
@@ -10004,7 +10004,7 @@
         <v>912</v>
       </c>
       <c r="H239" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I239" t="s">
         <v>1086</v>
@@ -10030,7 +10030,7 @@
         <v>792</v>
       </c>
       <c r="H240" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I240" t="s">
         <v>1086</v>
@@ -10056,7 +10056,7 @@
         <v>913</v>
       </c>
       <c r="H241" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I241" t="s">
         <v>1086</v>
@@ -10608,7 +10608,7 @@
         <v>840</v>
       </c>
       <c r="H262" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I262" t="s">
         <v>1086</v>
@@ -10660,7 +10660,7 @@
         <v>900</v>
       </c>
       <c r="H264" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I264" t="s">
         <v>1086</v>
@@ -10790,7 +10790,7 @@
         <v>928</v>
       </c>
       <c r="H269" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I269" t="s">
         <v>1086</v>
@@ -11001,7 +11001,7 @@
         <v>746</v>
       </c>
       <c r="H277" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I277" t="s">
         <v>1086</v>
@@ -11027,7 +11027,7 @@
         <v>931</v>
       </c>
       <c r="H278" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="I278" t="s">
         <v>1086</v>
@@ -12406,7 +12406,7 @@
         <v>955</v>
       </c>
       <c r="H330" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I330" t="s">
         <v>1086</v>
@@ -12435,7 +12435,7 @@
         <v>956</v>
       </c>
       <c r="H331" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I331" t="s">
         <v>1086</v>
@@ -12464,7 +12464,7 @@
         <v>957</v>
       </c>
       <c r="H332" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I332" t="s">
         <v>1086</v>
@@ -12698,7 +12698,7 @@
         <v>960</v>
       </c>
       <c r="H341" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I341" t="s">
         <v>1086</v>
@@ -12724,7 +12724,7 @@
         <v>961</v>
       </c>
       <c r="H342" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I342" t="s">
         <v>1086</v>
@@ -12750,7 +12750,7 @@
         <v>962</v>
       </c>
       <c r="H343" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I343" t="s">
         <v>1086</v>
@@ -12776,7 +12776,7 @@
         <v>963</v>
       </c>
       <c r="H344" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I344" t="s">
         <v>1086</v>
@@ -12802,7 +12802,7 @@
         <v>964</v>
       </c>
       <c r="H345" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I345" t="s">
         <v>1086</v>
@@ -12828,7 +12828,7 @@
         <v>965</v>
       </c>
       <c r="H346" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I346" t="s">
         <v>1086</v>
@@ -12851,7 +12851,7 @@
         <v>717</v>
       </c>
       <c r="H347" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I347" t="s">
         <v>1086</v>
@@ -12877,7 +12877,7 @@
         <v>743</v>
       </c>
       <c r="H348" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I348" t="s">
         <v>1086</v>
@@ -13019,7 +13019,7 @@
         <v>1088</v>
       </c>
       <c r="K353" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L353" t="s">
         <v>1086</v>

--- a/data-migration/xlsx_1900-/1905_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1905_Winter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CF3D47-7B04-42EA-B0A9-6912827BCBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFE6F2-7DFB-4F9E-8166-19949A5D52A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="1114">
   <si>
     <t>Winter</t>
   </si>
@@ -2975,9 +2975,6 @@
     <t>hafter_e</t>
   </si>
   <si>
-    <t>hitzig_t</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3059,9 +3056,6 @@
     <t>oswald_a</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3224,21 +3218,12 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>jordan_h</t>
   </si>
   <si>
     <t>bretscher_k</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3260,12 +3245,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>luening_a</t>
   </si>
   <si>
@@ -3323,9 +3302,6 @@
     <t>schaer_jf</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>ernst_p</t>
   </si>
   <si>
@@ -3378,6 +3354,27 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3417,7 +3414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3721,11 +3718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="F78" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="34.109375" customWidth="1"/>
     <col min="6" max="6" width="56.109375" customWidth="1"/>
@@ -3744,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F1" t="s">
         <v>373</v>
@@ -3756,7 +3753,7 @@
         <v>974</v>
       </c>
       <c r="I1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3770,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F2" t="s">
         <v>374</v>
@@ -3782,10 +3779,10 @@
         <v>975</v>
       </c>
       <c r="I2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3799,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
         <v>375</v>
@@ -3808,10 +3805,10 @@
         <v>742</v>
       </c>
       <c r="H3" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="I3" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3825,7 +3822,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F4" t="s">
         <v>376</v>
@@ -3837,7 +3834,7 @@
         <v>976</v>
       </c>
       <c r="I4" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3851,7 +3848,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F5" t="s">
         <v>377</v>
@@ -3863,7 +3860,7 @@
         <v>974</v>
       </c>
       <c r="I5" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3877,7 +3874,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F6" t="s">
         <v>378</v>
@@ -3889,7 +3886,7 @@
         <v>976</v>
       </c>
       <c r="I6" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3903,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F7" t="s">
         <v>379</v>
@@ -3915,7 +3912,7 @@
         <v>974</v>
       </c>
       <c r="I7" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3929,7 +3926,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F8" t="s">
         <v>380</v>
@@ -3938,10 +3935,10 @@
         <v>747</v>
       </c>
       <c r="H8" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="I8" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3955,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F9" t="s">
         <v>381</v>
@@ -3964,10 +3961,10 @@
         <v>748</v>
       </c>
       <c r="H9" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="I9" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3981,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F10" t="s">
         <v>382</v>
@@ -3990,10 +3987,10 @@
         <v>745</v>
       </c>
       <c r="H10" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="I10" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4007,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F11" t="s">
         <v>383</v>
@@ -4019,7 +4016,7 @@
         <v>977</v>
       </c>
       <c r="I11" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4033,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F12" t="s">
         <v>384</v>
@@ -4045,7 +4042,7 @@
         <v>977</v>
       </c>
       <c r="I12" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4059,7 +4056,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F13" t="s">
         <v>385</v>
@@ -4071,7 +4068,7 @@
         <v>977</v>
       </c>
       <c r="I13" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4085,7 +4082,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F14" t="s">
         <v>386</v>
@@ -4094,10 +4091,10 @@
         <v>751</v>
       </c>
       <c r="H14" t="s">
-        <v>1066</v>
+        <v>1110</v>
       </c>
       <c r="I14" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4111,7 +4108,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F15" t="s">
         <v>387</v>
@@ -4120,10 +4117,10 @@
         <v>752</v>
       </c>
       <c r="H15" t="s">
-        <v>1066</v>
+        <v>1110</v>
       </c>
       <c r="I15" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4137,7 +4134,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F16" t="s">
         <v>388</v>
@@ -4146,10 +4143,10 @@
         <v>753</v>
       </c>
       <c r="H16" t="s">
-        <v>1066</v>
+        <v>1110</v>
       </c>
       <c r="I16" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4163,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F17" t="s">
         <v>389</v>
@@ -4172,10 +4169,10 @@
         <v>754</v>
       </c>
       <c r="H17" t="s">
-        <v>1066</v>
+        <v>1110</v>
       </c>
       <c r="I17" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4189,7 +4186,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F18" t="s">
         <v>390</v>
@@ -4198,10 +4195,10 @@
         <v>755</v>
       </c>
       <c r="H18" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="I18" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4215,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F19" t="s">
         <v>391</v>
@@ -4224,10 +4221,10 @@
         <v>745</v>
       </c>
       <c r="H19" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="I19" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4241,7 +4238,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F20" t="s">
         <v>392</v>
@@ -4253,7 +4250,7 @@
         <v>974</v>
       </c>
       <c r="I20" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4267,7 +4264,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F21" t="s">
         <v>393</v>
@@ -4276,10 +4273,10 @@
         <v>757</v>
       </c>
       <c r="H21" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="I21" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4293,7 +4290,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F22" t="s">
         <v>394</v>
@@ -4305,7 +4302,7 @@
         <v>977</v>
       </c>
       <c r="I22" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4319,7 +4316,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F23" t="s">
         <v>395</v>
@@ -4331,7 +4328,7 @@
         <v>977</v>
       </c>
       <c r="I23" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4345,7 +4342,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="F24" t="s">
         <v>396</v>
@@ -4354,10 +4351,10 @@
         <v>760</v>
       </c>
       <c r="H24" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="I24" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4371,7 +4368,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F25" t="s">
         <v>397</v>
@@ -4383,7 +4380,7 @@
         <v>979</v>
       </c>
       <c r="I25" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4397,7 +4394,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F26" t="s">
         <v>398</v>
@@ -4406,10 +4403,10 @@
         <v>762</v>
       </c>
       <c r="H26" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="I26" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4423,7 +4420,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F27" t="s">
         <v>399</v>
@@ -4432,10 +4429,10 @@
         <v>763</v>
       </c>
       <c r="H27" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="I27" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4449,7 +4446,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F28" t="s">
         <v>400</v>
@@ -4458,10 +4455,10 @@
         <v>764</v>
       </c>
       <c r="H28" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="I28" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4475,7 +4472,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F29" t="s">
         <v>401</v>
@@ -4484,10 +4481,10 @@
         <v>765</v>
       </c>
       <c r="H29" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="I29" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4501,7 +4498,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F30" t="s">
         <v>402</v>
@@ -4510,10 +4507,10 @@
         <v>766</v>
       </c>
       <c r="H30" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I30" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4527,7 +4524,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F31" t="s">
         <v>403</v>
@@ -4536,10 +4533,10 @@
         <v>767</v>
       </c>
       <c r="H31" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I31" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4553,7 +4550,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F32" t="s">
         <v>404</v>
@@ -4562,10 +4559,10 @@
         <v>768</v>
       </c>
       <c r="H32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I32" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4579,7 +4576,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F33" t="s">
         <v>405</v>
@@ -4588,10 +4585,10 @@
         <v>769</v>
       </c>
       <c r="H33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I33" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4605,7 +4602,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F34" t="s">
         <v>406</v>
@@ -4614,10 +4611,10 @@
         <v>770</v>
       </c>
       <c r="H34" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I34" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4631,7 +4628,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F35" t="s">
         <v>407</v>
@@ -4640,10 +4637,10 @@
         <v>771</v>
       </c>
       <c r="H35" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I35" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4657,7 +4654,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F36" t="s">
         <v>408</v>
@@ -4666,10 +4663,10 @@
         <v>772</v>
       </c>
       <c r="H36" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I36" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4683,7 +4680,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F37" t="s">
         <v>409</v>
@@ -4692,10 +4689,10 @@
         <v>773</v>
       </c>
       <c r="H37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I37" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4709,7 +4706,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F38" t="s">
         <v>410</v>
@@ -4718,10 +4715,10 @@
         <v>774</v>
       </c>
       <c r="H38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I38" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4735,7 +4732,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F39" t="s">
         <v>411</v>
@@ -4744,10 +4741,10 @@
         <v>775</v>
       </c>
       <c r="H39" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I39" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4761,7 +4758,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F40" t="s">
         <v>412</v>
@@ -4770,13 +4767,13 @@
         <v>776</v>
       </c>
       <c r="H40" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J40" t="s">
         <v>1086</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4790,7 +4787,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F41" t="s">
         <v>413</v>
@@ -4799,13 +4796,13 @@
         <v>777</v>
       </c>
       <c r="H41" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I41" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J41" t="s">
         <v>1086</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4819,7 +4816,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F42" t="s">
         <v>414</v>
@@ -4831,7 +4828,7 @@
         <v>979</v>
       </c>
       <c r="I42" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,7 +4842,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F43" t="s">
         <v>415</v>
@@ -4854,13 +4851,13 @@
         <v>747</v>
       </c>
       <c r="H43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I43" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J43" t="s">
         <v>1086</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,7 +4871,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F44" t="s">
         <v>416</v>
@@ -4886,7 +4883,7 @@
         <v>979</v>
       </c>
       <c r="I44" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4900,7 +4897,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F45" t="s">
         <v>417</v>
@@ -4909,13 +4906,13 @@
         <v>780</v>
       </c>
       <c r="H45" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J45" t="s">
         <v>1086</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4929,7 +4926,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F46" t="s">
         <v>418</v>
@@ -4938,10 +4935,10 @@
         <v>781</v>
       </c>
       <c r="H46" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I46" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -4955,7 +4952,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F47" t="s">
         <v>419</v>
@@ -4964,10 +4961,10 @@
         <v>782</v>
       </c>
       <c r="H47" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I47" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4981,7 +4978,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F48" t="s">
         <v>420</v>
@@ -4990,10 +4987,10 @@
         <v>783</v>
       </c>
       <c r="H48" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I48" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -5007,7 +5004,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F49" t="s">
         <v>421</v>
@@ -5016,10 +5013,10 @@
         <v>784</v>
       </c>
       <c r="H49" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="I49" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -5033,7 +5030,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F50" t="s">
         <v>422</v>
@@ -5042,10 +5039,10 @@
         <v>785</v>
       </c>
       <c r="H50" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="I50" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -5059,7 +5056,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F51" t="s">
         <v>423</v>
@@ -5068,10 +5065,10 @@
         <v>786</v>
       </c>
       <c r="H51" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I51" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -5085,7 +5082,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F52" t="s">
         <v>424</v>
@@ -5094,10 +5091,10 @@
         <v>787</v>
       </c>
       <c r="H52" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I52" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -5111,7 +5108,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F53" t="s">
         <v>425</v>
@@ -5120,10 +5117,10 @@
         <v>788</v>
       </c>
       <c r="H53" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I53" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -5137,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F54" t="s">
         <v>426</v>
@@ -5146,10 +5143,10 @@
         <v>789</v>
       </c>
       <c r="H54" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I54" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -5163,7 +5160,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F55" t="s">
         <v>427</v>
@@ -5172,10 +5169,10 @@
         <v>790</v>
       </c>
       <c r="H55" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I55" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -5189,7 +5186,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F56" t="s">
         <v>428</v>
@@ -5198,10 +5195,10 @@
         <v>791</v>
       </c>
       <c r="H56" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I56" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -5215,7 +5212,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F57" t="s">
         <v>429</v>
@@ -5224,10 +5221,10 @@
         <v>792</v>
       </c>
       <c r="H57" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I57" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -5241,7 +5238,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F58" t="s">
         <v>430</v>
@@ -5250,10 +5247,10 @@
         <v>793</v>
       </c>
       <c r="H58" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I58" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -5267,7 +5264,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F59" t="s">
         <v>431</v>
@@ -5276,10 +5273,10 @@
         <v>794</v>
       </c>
       <c r="H59" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I59" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -5293,7 +5290,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F60" t="s">
         <v>432</v>
@@ -5305,7 +5302,7 @@
         <v>979</v>
       </c>
       <c r="I60" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -5319,7 +5316,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F61" t="s">
         <v>433</v>
@@ -5328,10 +5325,10 @@
         <v>788</v>
       </c>
       <c r="H61" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="I61" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -5345,7 +5342,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F62" t="s">
         <v>434</v>
@@ -5354,10 +5351,10 @@
         <v>796</v>
       </c>
       <c r="H62" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="I62" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -5371,7 +5368,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F63" t="s">
         <v>435</v>
@@ -5380,10 +5377,10 @@
         <v>797</v>
       </c>
       <c r="H63" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I63" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -5397,7 +5394,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F64" t="s">
         <v>436</v>
@@ -5406,10 +5403,10 @@
         <v>798</v>
       </c>
       <c r="H64" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I64" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5423,7 +5420,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F65" t="s">
         <v>437</v>
@@ -5432,10 +5429,10 @@
         <v>799</v>
       </c>
       <c r="H65" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I65" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5449,7 +5446,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F66" t="s">
         <v>438</v>
@@ -5458,10 +5455,10 @@
         <v>800</v>
       </c>
       <c r="H66" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I66" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5475,7 +5472,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F67" t="s">
         <v>439</v>
@@ -5484,13 +5481,13 @@
         <v>801</v>
       </c>
       <c r="H67" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I67" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J67" t="s">
         <v>1086</v>
-      </c>
-      <c r="J67" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5504,7 +5501,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F68" t="s">
         <v>440</v>
@@ -5513,10 +5510,10 @@
         <v>798</v>
       </c>
       <c r="H68" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="I68" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5530,7 +5527,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F69" t="s">
         <v>441</v>
@@ -5539,10 +5536,10 @@
         <v>802</v>
       </c>
       <c r="H69" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I69" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5556,7 +5553,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F70" t="s">
         <v>442</v>
@@ -5565,10 +5562,10 @@
         <v>802</v>
       </c>
       <c r="H70" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I70" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5582,7 +5579,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F71" t="s">
         <v>443</v>
@@ -5591,10 +5588,10 @@
         <v>754</v>
       </c>
       <c r="H71" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I71" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5608,7 +5605,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F72" t="s">
         <v>444</v>
@@ -5617,10 +5614,10 @@
         <v>803</v>
       </c>
       <c r="H72" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I72" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5634,7 +5631,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F73" t="s">
         <v>445</v>
@@ -5643,10 +5640,10 @@
         <v>804</v>
       </c>
       <c r="H73" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I73" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -5660,7 +5657,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F74" t="s">
         <v>446</v>
@@ -5669,10 +5666,10 @@
         <v>805</v>
       </c>
       <c r="H74" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I74" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5686,7 +5683,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F75" t="s">
         <v>447</v>
@@ -5695,10 +5692,10 @@
         <v>806</v>
       </c>
       <c r="H75" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="I75" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5712,7 +5709,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F76" t="s">
         <v>448</v>
@@ -5721,16 +5718,16 @@
         <v>807</v>
       </c>
       <c r="H76" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I76" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="K76" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L76" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5744,7 +5741,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F77" t="s">
         <v>449</v>
@@ -5753,10 +5750,10 @@
         <v>808</v>
       </c>
       <c r="H77" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I77" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5770,7 +5767,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F78" t="s">
         <v>450</v>
@@ -5779,10 +5776,10 @@
         <v>809</v>
       </c>
       <c r="H78" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I78" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5796,7 +5793,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F79" t="s">
         <v>451</v>
@@ -5805,10 +5802,10 @@
         <v>763</v>
       </c>
       <c r="H79" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I79" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5822,16 +5819,16 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F80" t="s">
         <v>452</v>
       </c>
       <c r="H80" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I80" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5845,7 +5842,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F81" t="s">
         <v>453</v>
@@ -5854,10 +5851,10 @@
         <v>810</v>
       </c>
       <c r="H81" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I81" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5871,7 +5868,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F82" t="s">
         <v>454</v>
@@ -5880,10 +5877,10 @@
         <v>745</v>
       </c>
       <c r="H82" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I82" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5897,7 +5894,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F83" t="s">
         <v>455</v>
@@ -5906,10 +5903,10 @@
         <v>811</v>
       </c>
       <c r="H83" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="I83" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5923,7 +5920,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F84" t="s">
         <v>456</v>
@@ -5932,10 +5929,10 @@
         <v>812</v>
       </c>
       <c r="H84" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="I84" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5949,7 +5946,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F85" t="s">
         <v>457</v>
@@ -5958,10 +5955,10 @@
         <v>763</v>
       </c>
       <c r="H85" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I85" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5975,7 +5972,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F86" t="s">
         <v>458</v>
@@ -5984,10 +5981,10 @@
         <v>813</v>
       </c>
       <c r="H86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I86" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6001,7 +5998,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F87" t="s">
         <v>459</v>
@@ -6010,10 +6007,10 @@
         <v>809</v>
       </c>
       <c r="H87" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I87" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6027,7 +6024,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F88" t="s">
         <v>460</v>
@@ -6036,10 +6033,10 @@
         <v>814</v>
       </c>
       <c r="H88" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I88" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6053,7 +6050,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F89" t="s">
         <v>461</v>
@@ -6062,10 +6059,10 @@
         <v>815</v>
       </c>
       <c r="H89" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I89" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6079,7 +6076,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F90" t="s">
         <v>462</v>
@@ -6088,10 +6085,10 @@
         <v>750</v>
       </c>
       <c r="H90" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I90" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6105,7 +6102,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F91" t="s">
         <v>463</v>
@@ -6114,10 +6111,10 @@
         <v>745</v>
       </c>
       <c r="H91" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I91" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6131,7 +6128,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F92" t="s">
         <v>464</v>
@@ -6140,10 +6137,10 @@
         <v>816</v>
       </c>
       <c r="H92" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="I92" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6157,7 +6154,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F93" t="s">
         <v>465</v>
@@ -6166,10 +6163,10 @@
         <v>817</v>
       </c>
       <c r="H93" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="I93" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6183,7 +6180,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F94" t="s">
         <v>466</v>
@@ -6192,10 +6189,10 @@
         <v>818</v>
       </c>
       <c r="H94" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="I94" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6209,16 +6206,16 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F95" t="s">
         <v>467</v>
       </c>
       <c r="H95" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="I95" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6232,7 +6229,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F96" t="s">
         <v>468</v>
@@ -6241,10 +6238,10 @@
         <v>743</v>
       </c>
       <c r="H96" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="I96" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6258,7 +6255,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F97" t="s">
         <v>465</v>
@@ -6267,10 +6264,10 @@
         <v>819</v>
       </c>
       <c r="H97" t="s">
-        <v>1076</v>
+        <v>1113</v>
       </c>
       <c r="I97" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6284,7 +6281,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F98" t="s">
         <v>469</v>
@@ -6293,10 +6290,10 @@
         <v>820</v>
       </c>
       <c r="H98" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I98" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6310,7 +6307,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F99" t="s">
         <v>470</v>
@@ -6319,13 +6316,13 @@
         <v>821</v>
       </c>
       <c r="H99" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="I99" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J99" t="s">
         <v>1086</v>
-      </c>
-      <c r="J99" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6339,7 +6336,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F100" t="s">
         <v>471</v>
@@ -6348,13 +6345,13 @@
         <v>822</v>
       </c>
       <c r="H100" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="I100" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J100" t="s">
         <v>1086</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6368,7 +6365,7 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F101" t="s">
         <v>472</v>
@@ -6377,13 +6374,13 @@
         <v>823</v>
       </c>
       <c r="H101" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="I101" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J101" t="s">
         <v>1086</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6397,7 +6394,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F102" t="s">
         <v>473</v>
@@ -6406,13 +6403,13 @@
         <v>824</v>
       </c>
       <c r="H102" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="I102" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J102" t="s">
         <v>1086</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6426,7 +6423,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F103" t="s">
         <v>450</v>
@@ -6435,13 +6432,13 @@
         <v>809</v>
       </c>
       <c r="H103" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="I103" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J103" t="s">
         <v>1086</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6455,7 +6452,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F104" t="s">
         <v>474</v>
@@ -6464,10 +6461,10 @@
         <v>825</v>
       </c>
       <c r="H104" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I104" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -6481,7 +6478,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F105" t="s">
         <v>475</v>
@@ -6490,10 +6487,10 @@
         <v>826</v>
       </c>
       <c r="H105" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I105" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -6507,7 +6504,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F106" t="s">
         <v>476</v>
@@ -6516,10 +6513,10 @@
         <v>827</v>
       </c>
       <c r="H106" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I106" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -6533,7 +6530,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F107" t="s">
         <v>477</v>
@@ -6542,10 +6539,10 @@
         <v>828</v>
       </c>
       <c r="H107" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I107" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -6559,7 +6556,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F108" t="s">
         <v>478</v>
@@ -6568,10 +6565,10 @@
         <v>774</v>
       </c>
       <c r="H108" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I108" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -6585,7 +6582,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F109" t="s">
         <v>479</v>
@@ -6594,10 +6591,10 @@
         <v>829</v>
       </c>
       <c r="H109" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I109" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -6611,7 +6608,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F110" t="s">
         <v>480</v>
@@ -6620,10 +6617,10 @@
         <v>745</v>
       </c>
       <c r="H110" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I110" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -6637,7 +6634,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F111" t="s">
         <v>481</v>
@@ -6646,10 +6643,10 @@
         <v>750</v>
       </c>
       <c r="H111" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I111" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -6663,7 +6660,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F112" t="s">
         <v>482</v>
@@ -6672,10 +6669,10 @@
         <v>830</v>
       </c>
       <c r="H112" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="I112" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6689,7 +6686,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F113" t="s">
         <v>483</v>
@@ -6698,10 +6695,10 @@
         <v>831</v>
       </c>
       <c r="H113" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="I113" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6715,7 +6712,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F114" t="s">
         <v>484</v>
@@ -6724,10 +6721,10 @@
         <v>832</v>
       </c>
       <c r="H114" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I114" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6741,7 +6738,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F115" t="s">
         <v>485</v>
@@ -6750,10 +6747,10 @@
         <v>833</v>
       </c>
       <c r="H115" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I115" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6767,7 +6764,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F116" t="s">
         <v>486</v>
@@ -6776,10 +6773,10 @@
         <v>834</v>
       </c>
       <c r="H116" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I116" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6793,7 +6790,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F117" t="s">
         <v>487</v>
@@ -6802,10 +6799,10 @@
         <v>750</v>
       </c>
       <c r="H117" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I117" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6819,7 +6816,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F118" t="s">
         <v>488</v>
@@ -6828,10 +6825,10 @@
         <v>750</v>
       </c>
       <c r="H118" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I118" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6845,7 +6842,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F119" t="s">
         <v>489</v>
@@ -6854,10 +6851,10 @@
         <v>835</v>
       </c>
       <c r="H119" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I119" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6871,7 +6868,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F120" t="s">
         <v>490</v>
@@ -6880,10 +6877,10 @@
         <v>750</v>
       </c>
       <c r="H120" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I120" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6897,7 +6894,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F121" t="s">
         <v>491</v>
@@ -6906,10 +6903,10 @@
         <v>750</v>
       </c>
       <c r="H121" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I121" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6923,7 +6920,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F122" t="s">
         <v>492</v>
@@ -6932,10 +6929,10 @@
         <v>836</v>
       </c>
       <c r="H122" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="I122" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -6949,7 +6946,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F123" t="s">
         <v>493</v>
@@ -6958,10 +6955,10 @@
         <v>750</v>
       </c>
       <c r="H123" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="I123" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -6975,7 +6972,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F124" t="s">
         <v>494</v>
@@ -6984,10 +6981,10 @@
         <v>837</v>
       </c>
       <c r="H124" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I124" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7001,7 +6998,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F125" t="s">
         <v>495</v>
@@ -7010,10 +7007,10 @@
         <v>745</v>
       </c>
       <c r="H125" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I125" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7027,7 +7024,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F126" t="s">
         <v>496</v>
@@ -7036,10 +7033,10 @@
         <v>750</v>
       </c>
       <c r="H126" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="I126" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7053,7 +7050,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F127" t="s">
         <v>497</v>
@@ -7062,10 +7059,10 @@
         <v>818</v>
       </c>
       <c r="H127" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="I127" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7079,7 +7076,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F128" t="s">
         <v>498</v>
@@ -7088,10 +7085,10 @@
         <v>750</v>
       </c>
       <c r="H128" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I128" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -7105,7 +7102,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F129" t="s">
         <v>499</v>
@@ -7114,10 +7111,10 @@
         <v>838</v>
       </c>
       <c r="H129" t="s">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="I129" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -7131,7 +7128,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F130" t="s">
         <v>500</v>
@@ -7140,10 +7137,10 @@
         <v>839</v>
       </c>
       <c r="H130" t="s">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="I130" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -7157,7 +7154,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F131" t="s">
         <v>501</v>
@@ -7166,10 +7163,10 @@
         <v>840</v>
       </c>
       <c r="H131" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I131" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -7183,7 +7180,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F132" t="s">
         <v>502</v>
@@ -7192,10 +7189,10 @@
         <v>841</v>
       </c>
       <c r="H132" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I132" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -7209,7 +7206,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F133" t="s">
         <v>503</v>
@@ -7218,10 +7215,10 @@
         <v>842</v>
       </c>
       <c r="H133" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I133" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -7235,7 +7232,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F134" t="s">
         <v>504</v>
@@ -7244,16 +7241,16 @@
         <v>745</v>
       </c>
       <c r="H134" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="I134" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="K134" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="L134" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -7267,7 +7264,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F135" t="s">
         <v>505</v>
@@ -7276,10 +7273,10 @@
         <v>743</v>
       </c>
       <c r="H135" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I135" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -7293,7 +7290,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F136" t="s">
         <v>506</v>
@@ -7302,10 +7299,10 @@
         <v>745</v>
       </c>
       <c r="H136" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I136" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -7319,7 +7316,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F137" t="s">
         <v>507</v>
@@ -7328,10 +7325,10 @@
         <v>750</v>
       </c>
       <c r="H137" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I137" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -7345,7 +7342,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F138" t="s">
         <v>508</v>
@@ -7354,10 +7351,10 @@
         <v>843</v>
       </c>
       <c r="H138" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I138" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -7371,7 +7368,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F139" t="s">
         <v>509</v>
@@ -7380,10 +7377,10 @@
         <v>844</v>
       </c>
       <c r="H139" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I139" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -7397,7 +7394,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F140" t="s">
         <v>510</v>
@@ -7406,10 +7403,10 @@
         <v>845</v>
       </c>
       <c r="H140" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I140" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -7423,7 +7420,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F141" t="s">
         <v>511</v>
@@ -7432,10 +7429,10 @@
         <v>741</v>
       </c>
       <c r="H141" t="s">
-        <v>1075</v>
+        <v>1107</v>
       </c>
       <c r="I141" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -7449,7 +7446,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F142" t="s">
         <v>512</v>
@@ -7458,10 +7455,10 @@
         <v>745</v>
       </c>
       <c r="H142" t="s">
-        <v>1075</v>
+        <v>1107</v>
       </c>
       <c r="I142" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -7475,7 +7472,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F143" t="s">
         <v>513</v>
@@ -7484,10 +7481,10 @@
         <v>846</v>
       </c>
       <c r="H143" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I143" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -7501,7 +7498,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F144" t="s">
         <v>514</v>
@@ -7510,13 +7507,13 @@
         <v>847</v>
       </c>
       <c r="H144" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I144" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J144" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -7530,7 +7527,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F145" t="s">
         <v>515</v>
@@ -7539,13 +7536,13 @@
         <v>848</v>
       </c>
       <c r="H145" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I145" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J145" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -7559,7 +7556,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F146" t="s">
         <v>516</v>
@@ -7568,10 +7565,10 @@
         <v>745</v>
       </c>
       <c r="H146" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="I146" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -7585,7 +7582,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F147" t="s">
         <v>517</v>
@@ -7594,10 +7591,10 @@
         <v>741</v>
       </c>
       <c r="H147" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="I147" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -7611,7 +7608,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F148" t="s">
         <v>518</v>
@@ -7620,10 +7617,10 @@
         <v>849</v>
       </c>
       <c r="H148" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="I148" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -7637,7 +7634,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F149" t="s">
         <v>519</v>
@@ -7646,10 +7643,10 @@
         <v>745</v>
       </c>
       <c r="H149" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="I149" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -7663,7 +7660,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F150" t="s">
         <v>520</v>
@@ -7672,10 +7669,10 @@
         <v>850</v>
       </c>
       <c r="H150" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I150" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -7689,7 +7686,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F151" t="s">
         <v>521</v>
@@ -7698,10 +7695,10 @@
         <v>851</v>
       </c>
       <c r="H151" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I151" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -7715,7 +7712,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F152" t="s">
         <v>522</v>
@@ -7724,10 +7721,10 @@
         <v>750</v>
       </c>
       <c r="H152" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="I152" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -7741,7 +7738,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F153" t="s">
         <v>523</v>
@@ -7750,10 +7747,10 @@
         <v>852</v>
       </c>
       <c r="H153" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I153" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -7767,7 +7764,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F154" t="s">
         <v>524</v>
@@ -7776,10 +7773,10 @@
         <v>853</v>
       </c>
       <c r="H154" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I154" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -7793,7 +7790,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F155" t="s">
         <v>525</v>
@@ -7802,10 +7799,10 @@
         <v>854</v>
       </c>
       <c r="H155" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I155" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -7819,7 +7816,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F156" t="s">
         <v>526</v>
@@ -7828,10 +7825,10 @@
         <v>822</v>
       </c>
       <c r="H156" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I156" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -7845,7 +7842,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F157" t="s">
         <v>527</v>
@@ -7854,10 +7851,10 @@
         <v>745</v>
       </c>
       <c r="H157" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="I157" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -7871,7 +7868,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F158" t="s">
         <v>528</v>
@@ -7880,10 +7877,10 @@
         <v>750</v>
       </c>
       <c r="H158" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="I158" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -7897,7 +7894,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F159" t="s">
         <v>529</v>
@@ -7906,10 +7903,10 @@
         <v>855</v>
       </c>
       <c r="H159" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I159" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -7923,7 +7920,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F160" t="s">
         <v>530</v>
@@ -7932,10 +7929,10 @@
         <v>856</v>
       </c>
       <c r="H160" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I160" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7949,7 +7946,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F161" t="s">
         <v>531</v>
@@ -7958,10 +7955,10 @@
         <v>857</v>
       </c>
       <c r="H161" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I161" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -7975,7 +7972,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F162" t="s">
         <v>532</v>
@@ -7984,10 +7981,10 @@
         <v>775</v>
       </c>
       <c r="H162" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I162" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8001,7 +7998,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F163" t="s">
         <v>533</v>
@@ -8010,10 +8007,10 @@
         <v>858</v>
       </c>
       <c r="H163" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I163" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8027,7 +8024,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F164" t="s">
         <v>534</v>
@@ -8036,10 +8033,10 @@
         <v>859</v>
       </c>
       <c r="H164" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I164" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8053,7 +8050,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F165" t="s">
         <v>535</v>
@@ -8062,10 +8059,10 @@
         <v>860</v>
       </c>
       <c r="H165" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I165" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8079,7 +8076,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F166" t="s">
         <v>536</v>
@@ -8088,10 +8085,10 @@
         <v>861</v>
       </c>
       <c r="H166" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="I166" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8105,7 +8102,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F167" t="s">
         <v>537</v>
@@ -8114,10 +8111,10 @@
         <v>862</v>
       </c>
       <c r="H167" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="I167" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8131,7 +8128,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F168" t="s">
         <v>538</v>
@@ -8140,7 +8137,7 @@
         <v>863</v>
       </c>
       <c r="I168" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8154,7 +8151,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F169" t="s">
         <v>539</v>
@@ -8163,7 +8160,7 @@
         <v>864</v>
       </c>
       <c r="I169" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8177,7 +8174,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F170" t="s">
         <v>540</v>
@@ -8186,10 +8183,10 @@
         <v>865</v>
       </c>
       <c r="H170" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I170" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8203,7 +8200,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F171" t="s">
         <v>541</v>
@@ -8212,10 +8209,10 @@
         <v>866</v>
       </c>
       <c r="H171" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I171" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8229,7 +8226,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F172" t="s">
         <v>542</v>
@@ -8238,10 +8235,10 @@
         <v>867</v>
       </c>
       <c r="H172" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I172" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8255,7 +8252,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F173" t="s">
         <v>543</v>
@@ -8264,10 +8261,10 @@
         <v>868</v>
       </c>
       <c r="H173" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I173" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8281,7 +8278,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F174" t="s">
         <v>544</v>
@@ -8290,10 +8287,10 @@
         <v>869</v>
       </c>
       <c r="H174" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I174" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8307,7 +8304,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F175" t="s">
         <v>545</v>
@@ -8316,10 +8313,10 @@
         <v>870</v>
       </c>
       <c r="H175" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I175" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8333,7 +8330,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F176" t="s">
         <v>546</v>
@@ -8342,10 +8339,10 @@
         <v>871</v>
       </c>
       <c r="H176" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I176" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8359,7 +8356,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F177" t="s">
         <v>547</v>
@@ -8368,10 +8365,10 @@
         <v>872</v>
       </c>
       <c r="H177" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I177" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8385,7 +8382,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F178" t="s">
         <v>548</v>
@@ -8394,10 +8391,10 @@
         <v>873</v>
       </c>
       <c r="H178" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I178" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8411,7 +8408,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F179" t="s">
         <v>549</v>
@@ -8420,10 +8417,10 @@
         <v>874</v>
       </c>
       <c r="H179" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I179" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8437,7 +8434,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F180" t="s">
         <v>550</v>
@@ -8446,13 +8443,13 @@
         <v>749</v>
       </c>
       <c r="H180" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I180" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J180" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8466,7 +8463,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F181" t="s">
         <v>551</v>
@@ -8475,13 +8472,13 @@
         <v>875</v>
       </c>
       <c r="H181" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I181" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J181" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8495,7 +8492,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F182" t="s">
         <v>552</v>
@@ -8504,13 +8501,13 @@
         <v>876</v>
       </c>
       <c r="H182" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I182" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J182" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8524,7 +8521,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F183" t="s">
         <v>553</v>
@@ -8533,13 +8530,13 @@
         <v>877</v>
       </c>
       <c r="H183" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I183" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="J183" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8553,7 +8550,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F184" t="s">
         <v>554</v>
@@ -8562,10 +8559,10 @@
         <v>878</v>
       </c>
       <c r="H184" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I184" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8579,7 +8576,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F185" t="s">
         <v>555</v>
@@ -8588,10 +8585,10 @@
         <v>879</v>
       </c>
       <c r="H185" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="I185" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8605,7 +8602,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F186" t="s">
         <v>556</v>
@@ -8614,10 +8611,10 @@
         <v>880</v>
       </c>
       <c r="H186" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I186" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8631,7 +8628,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F187" t="s">
         <v>557</v>
@@ -8640,10 +8637,10 @@
         <v>745</v>
       </c>
       <c r="H187" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I187" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8657,7 +8654,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F188" t="s">
         <v>558</v>
@@ -8666,10 +8663,10 @@
         <v>750</v>
       </c>
       <c r="H188" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I188" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8683,7 +8680,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F189" t="s">
         <v>559</v>
@@ -8692,10 +8689,10 @@
         <v>815</v>
       </c>
       <c r="H189" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I189" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8709,7 +8706,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F190" t="s">
         <v>560</v>
@@ -8718,13 +8715,13 @@
         <v>881</v>
       </c>
       <c r="H190" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I190" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J190" t="s">
         <v>1086</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8738,7 +8735,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F191" t="s">
         <v>561</v>
@@ -8747,10 +8744,10 @@
         <v>882</v>
       </c>
       <c r="H191" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I191" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8764,7 +8761,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F192" t="s">
         <v>562</v>
@@ -8773,13 +8770,13 @@
         <v>883</v>
       </c>
       <c r="H192" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I192" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J192" t="s">
         <v>1086</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -8793,7 +8790,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F193" t="s">
         <v>563</v>
@@ -8802,10 +8799,10 @@
         <v>884</v>
       </c>
       <c r="H193" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I193" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -8819,7 +8816,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F194" t="s">
         <v>564</v>
@@ -8828,13 +8825,13 @@
         <v>885</v>
       </c>
       <c r="H194" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I194" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J194" t="s">
         <v>1086</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -8848,7 +8845,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F195" t="s">
         <v>565</v>
@@ -8857,10 +8854,10 @@
         <v>886</v>
       </c>
       <c r="H195" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I195" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -8874,7 +8871,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F196" t="s">
         <v>566</v>
@@ -8883,10 +8880,10 @@
         <v>887</v>
       </c>
       <c r="H196" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I196" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -8900,7 +8897,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F197" t="s">
         <v>567</v>
@@ -8909,10 +8906,10 @@
         <v>888</v>
       </c>
       <c r="H197" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I197" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -8926,7 +8923,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F198" t="s">
         <v>568</v>
@@ -8935,10 +8932,10 @@
         <v>889</v>
       </c>
       <c r="H198" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I198" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -8952,7 +8949,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F199" t="s">
         <v>569</v>
@@ -8961,10 +8958,10 @@
         <v>890</v>
       </c>
       <c r="H199" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I199" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -8978,7 +8975,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F200" t="s">
         <v>570</v>
@@ -8987,10 +8984,10 @@
         <v>891</v>
       </c>
       <c r="H200" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I200" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9004,7 +9001,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F201" t="s">
         <v>571</v>
@@ -9013,10 +9010,10 @@
         <v>892</v>
       </c>
       <c r="H201" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I201" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9030,7 +9027,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F202" t="s">
         <v>572</v>
@@ -9039,10 +9036,10 @@
         <v>795</v>
       </c>
       <c r="H202" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I202" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9056,7 +9053,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F203" t="s">
         <v>573</v>
@@ -9065,13 +9062,13 @@
         <v>893</v>
       </c>
       <c r="H203" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I203" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J203" t="s">
         <v>1086</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9085,7 +9082,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F204" t="s">
         <v>574</v>
@@ -9094,10 +9091,10 @@
         <v>894</v>
       </c>
       <c r="H204" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I204" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9111,7 +9108,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F205" t="s">
         <v>575</v>
@@ -9120,10 +9117,10 @@
         <v>895</v>
       </c>
       <c r="H205" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I205" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9137,7 +9134,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F206" t="s">
         <v>576</v>
@@ -9146,10 +9143,10 @@
         <v>896</v>
       </c>
       <c r="H206" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="I206" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9163,7 +9160,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F207" t="s">
         <v>577</v>
@@ -9172,10 +9169,10 @@
         <v>745</v>
       </c>
       <c r="H207" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I207" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9189,7 +9186,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F208" t="s">
         <v>578</v>
@@ -9198,10 +9195,10 @@
         <v>750</v>
       </c>
       <c r="H208" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I208" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9215,7 +9212,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F209" t="s">
         <v>579</v>
@@ -9224,10 +9221,10 @@
         <v>741</v>
       </c>
       <c r="H209" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I209" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9241,7 +9238,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F210" t="s">
         <v>580</v>
@@ -9250,10 +9247,10 @@
         <v>741</v>
       </c>
       <c r="H210" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I210" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9267,7 +9264,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F211" t="s">
         <v>581</v>
@@ -9276,10 +9273,10 @@
         <v>897</v>
       </c>
       <c r="H211" t="s">
-        <v>980</v>
+        <v>1071</v>
       </c>
       <c r="I211" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9293,7 +9290,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F212" t="s">
         <v>582</v>
@@ -9305,7 +9302,7 @@
         <v>978</v>
       </c>
       <c r="I212" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9319,7 +9316,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F213" t="s">
         <v>583</v>
@@ -9328,10 +9325,10 @@
         <v>898</v>
       </c>
       <c r="H213" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="I213" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9345,7 +9342,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F214" t="s">
         <v>584</v>
@@ -9354,10 +9351,10 @@
         <v>761</v>
       </c>
       <c r="H214" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I214" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9371,7 +9368,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F215" t="s">
         <v>585</v>
@@ -9383,7 +9380,7 @@
         <v>978</v>
       </c>
       <c r="I215" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9397,7 +9394,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F216" t="s">
         <v>586</v>
@@ -9406,10 +9403,10 @@
         <v>900</v>
       </c>
       <c r="H216" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="I216" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9423,7 +9420,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F217" t="s">
         <v>587</v>
@@ -9432,10 +9429,10 @@
         <v>745</v>
       </c>
       <c r="H217" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I217" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9449,7 +9446,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F218" t="s">
         <v>588</v>
@@ -9458,10 +9455,10 @@
         <v>901</v>
       </c>
       <c r="H218" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I218" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9475,7 +9472,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F219" t="s">
         <v>589</v>
@@ -9484,10 +9481,10 @@
         <v>899</v>
       </c>
       <c r="H219" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="I219" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9501,7 +9498,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F220" t="s">
         <v>590</v>
@@ -9510,10 +9507,10 @@
         <v>743</v>
       </c>
       <c r="H220" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="I220" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9527,7 +9524,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F221" t="s">
         <v>591</v>
@@ -9536,10 +9533,10 @@
         <v>895</v>
       </c>
       <c r="H221" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="I221" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9553,7 +9550,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F222" t="s">
         <v>592</v>
@@ -9562,10 +9559,10 @@
         <v>902</v>
       </c>
       <c r="H222" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I222" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9579,7 +9576,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F223" t="s">
         <v>593</v>
@@ -9588,10 +9585,10 @@
         <v>903</v>
       </c>
       <c r="H223" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="I223" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9605,7 +9602,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F224" t="s">
         <v>594</v>
@@ -9614,10 +9611,10 @@
         <v>904</v>
       </c>
       <c r="H224" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="I224" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -9631,7 +9628,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F225" t="s">
         <v>595</v>
@@ -9640,10 +9637,10 @@
         <v>815</v>
       </c>
       <c r="H225" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I225" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -9657,7 +9654,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F226" t="s">
         <v>596</v>
@@ -9666,10 +9663,10 @@
         <v>905</v>
       </c>
       <c r="H226" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I226" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -9683,7 +9680,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F227" t="s">
         <v>597</v>
@@ -9692,10 +9689,10 @@
         <v>750</v>
       </c>
       <c r="H227" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I227" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -9709,7 +9706,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F228" t="s">
         <v>598</v>
@@ -9718,10 +9715,10 @@
         <v>906</v>
       </c>
       <c r="H228" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I228" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -9735,7 +9732,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F229" t="s">
         <v>599</v>
@@ -9744,10 +9741,10 @@
         <v>745</v>
       </c>
       <c r="H229" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="I229" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -9761,7 +9758,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F230" t="s">
         <v>600</v>
@@ -9770,10 +9767,10 @@
         <v>907</v>
       </c>
       <c r="H230" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I230" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -9787,7 +9784,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F231" t="s">
         <v>601</v>
@@ -9796,10 +9793,10 @@
         <v>908</v>
       </c>
       <c r="H231" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="I231" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -9813,7 +9810,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F232" t="s">
         <v>602</v>
@@ -9822,10 +9819,10 @@
         <v>772</v>
       </c>
       <c r="H232" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="I232" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -9839,7 +9836,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F233" t="s">
         <v>603</v>
@@ -9848,10 +9845,10 @@
         <v>750</v>
       </c>
       <c r="H233" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I233" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -9865,7 +9862,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F234" t="s">
         <v>604</v>
@@ -9874,10 +9871,10 @@
         <v>909</v>
       </c>
       <c r="H234" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="I234" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -9891,7 +9888,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F235" t="s">
         <v>605</v>
@@ -9900,10 +9897,10 @@
         <v>750</v>
       </c>
       <c r="H235" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I235" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -9917,7 +9914,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F236" t="s">
         <v>606</v>
@@ -9926,10 +9923,10 @@
         <v>750</v>
       </c>
       <c r="H236" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I236" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -9943,7 +9940,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F237" t="s">
         <v>607</v>
@@ -9952,10 +9949,10 @@
         <v>910</v>
       </c>
       <c r="H237" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I237" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -9969,7 +9966,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F238" t="s">
         <v>608</v>
@@ -9978,10 +9975,10 @@
         <v>911</v>
       </c>
       <c r="H238" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I238" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -9995,7 +9992,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F239" t="s">
         <v>609</v>
@@ -10004,10 +10001,10 @@
         <v>912</v>
       </c>
       <c r="H239" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="I239" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10021,7 +10018,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F240" t="s">
         <v>610</v>
@@ -10030,10 +10027,10 @@
         <v>792</v>
       </c>
       <c r="H240" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="I240" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10047,7 +10044,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F241" t="s">
         <v>611</v>
@@ -10056,10 +10053,10 @@
         <v>913</v>
       </c>
       <c r="H241" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="I241" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10076,7 +10073,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F242" t="s">
         <v>612</v>
@@ -10085,10 +10082,10 @@
         <v>914</v>
       </c>
       <c r="H242" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I242" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10105,7 +10102,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F243" t="s">
         <v>613</v>
@@ -10114,10 +10111,10 @@
         <v>915</v>
       </c>
       <c r="H243" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I243" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10131,7 +10128,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F244" t="s">
         <v>614</v>
@@ -10140,10 +10137,10 @@
         <v>916</v>
       </c>
       <c r="H244" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I244" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10157,7 +10154,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F245" t="s">
         <v>615</v>
@@ -10166,10 +10163,10 @@
         <v>917</v>
       </c>
       <c r="H245" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I245" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10183,7 +10180,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F246" t="s">
         <v>616</v>
@@ -10192,10 +10189,10 @@
         <v>918</v>
       </c>
       <c r="H246" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I246" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10209,7 +10206,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F247" t="s">
         <v>617</v>
@@ -10218,10 +10215,10 @@
         <v>919</v>
       </c>
       <c r="H247" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I247" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10235,7 +10232,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F248" t="s">
         <v>618</v>
@@ -10244,10 +10241,10 @@
         <v>909</v>
       </c>
       <c r="H248" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I248" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10261,7 +10258,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F249" t="s">
         <v>619</v>
@@ -10270,10 +10267,10 @@
         <v>920</v>
       </c>
       <c r="H249" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I249" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10287,7 +10284,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F250" t="s">
         <v>620</v>
@@ -10296,10 +10293,10 @@
         <v>862</v>
       </c>
       <c r="H250" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I250" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10313,7 +10310,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F251" t="s">
         <v>621</v>
@@ -10322,10 +10319,10 @@
         <v>921</v>
       </c>
       <c r="H251" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I251" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10339,7 +10336,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F252" t="s">
         <v>622</v>
@@ -10348,10 +10345,10 @@
         <v>745</v>
       </c>
       <c r="H252" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I252" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10365,7 +10362,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F253" t="s">
         <v>623</v>
@@ -10374,10 +10371,10 @@
         <v>922</v>
       </c>
       <c r="H253" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I253" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10391,7 +10388,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F254" t="s">
         <v>624</v>
@@ -10400,10 +10397,10 @@
         <v>923</v>
       </c>
       <c r="H254" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I254" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10417,7 +10414,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F255" t="s">
         <v>625</v>
@@ -10426,10 +10423,10 @@
         <v>924</v>
       </c>
       <c r="H255" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I255" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10443,7 +10440,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F256" t="s">
         <v>626</v>
@@ -10452,10 +10449,10 @@
         <v>750</v>
       </c>
       <c r="H256" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I256" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10469,7 +10466,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F257" t="s">
         <v>627</v>
@@ -10478,10 +10475,10 @@
         <v>745</v>
       </c>
       <c r="H257" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I257" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10495,7 +10492,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F258" t="s">
         <v>628</v>
@@ -10504,10 +10501,10 @@
         <v>755</v>
       </c>
       <c r="H258" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="I258" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10521,7 +10518,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F259" t="s">
         <v>629</v>
@@ -10530,10 +10527,10 @@
         <v>754</v>
       </c>
       <c r="H259" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I259" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10547,7 +10544,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F260" t="s">
         <v>630</v>
@@ -10556,10 +10553,10 @@
         <v>743</v>
       </c>
       <c r="H260" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I260" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10573,7 +10570,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F261" t="s">
         <v>631</v>
@@ -10582,10 +10579,10 @@
         <v>743</v>
       </c>
       <c r="H261" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="I261" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10599,7 +10596,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F262" t="s">
         <v>632</v>
@@ -10608,10 +10605,10 @@
         <v>840</v>
       </c>
       <c r="H262" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="I262" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10625,7 +10622,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F263" t="s">
         <v>633</v>
@@ -10634,10 +10631,10 @@
         <v>743</v>
       </c>
       <c r="H263" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I263" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10651,7 +10648,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F264" t="s">
         <v>634</v>
@@ -10660,10 +10657,10 @@
         <v>900</v>
       </c>
       <c r="H264" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="I264" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10677,7 +10674,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F265" t="s">
         <v>635</v>
@@ -10686,10 +10683,10 @@
         <v>925</v>
       </c>
       <c r="H265" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I265" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10703,7 +10700,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F266" t="s">
         <v>636</v>
@@ -10712,10 +10709,10 @@
         <v>745</v>
       </c>
       <c r="H266" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I266" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10729,7 +10726,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F267" t="s">
         <v>637</v>
@@ -10738,10 +10735,10 @@
         <v>926</v>
       </c>
       <c r="H267" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I267" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -10755,7 +10752,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F268" t="s">
         <v>638</v>
@@ -10764,10 +10761,10 @@
         <v>927</v>
       </c>
       <c r="H268" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I268" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -10781,7 +10778,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F269" t="s">
         <v>639</v>
@@ -10790,10 +10787,10 @@
         <v>928</v>
       </c>
       <c r="H269" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="I269" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -10807,7 +10804,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F270" t="s">
         <v>640</v>
@@ -10816,10 +10813,10 @@
         <v>750</v>
       </c>
       <c r="H270" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I270" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10833,7 +10830,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F271" t="s">
         <v>641</v>
@@ -10842,10 +10839,10 @@
         <v>929</v>
       </c>
       <c r="H271" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I271" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10862,7 +10859,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F272" t="s">
         <v>642</v>
@@ -10871,10 +10868,10 @@
         <v>914</v>
       </c>
       <c r="H272" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I272" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10888,7 +10885,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F273" t="s">
         <v>643</v>
@@ -10897,10 +10894,10 @@
         <v>926</v>
       </c>
       <c r="H273" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="I273" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10914,7 +10911,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F274" t="s">
         <v>644</v>
@@ -10923,10 +10920,10 @@
         <v>930</v>
       </c>
       <c r="H274" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I274" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -10940,7 +10937,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F275" t="s">
         <v>645</v>
@@ -10949,10 +10946,10 @@
         <v>743</v>
       </c>
       <c r="H275" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="I275" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -10966,7 +10963,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F276" t="s">
         <v>646</v>
@@ -10975,10 +10972,10 @@
         <v>783</v>
       </c>
       <c r="H276" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I276" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -10992,7 +10989,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F277" t="s">
         <v>647</v>
@@ -11001,10 +10998,10 @@
         <v>746</v>
       </c>
       <c r="H277" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="I277" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11018,7 +11015,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F278" t="s">
         <v>648</v>
@@ -11027,10 +11024,10 @@
         <v>931</v>
       </c>
       <c r="H278" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="I278" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11044,7 +11041,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F279" t="s">
         <v>649</v>
@@ -11053,10 +11050,10 @@
         <v>932</v>
       </c>
       <c r="H279" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I279" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11070,7 +11067,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F280" t="s">
         <v>650</v>
@@ -11079,10 +11076,10 @@
         <v>933</v>
       </c>
       <c r="H280" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="I280" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11096,7 +11093,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F281" t="s">
         <v>651</v>
@@ -11105,10 +11102,10 @@
         <v>758</v>
       </c>
       <c r="H281" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I281" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11122,7 +11119,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F282" t="s">
         <v>652</v>
@@ -11131,10 +11128,10 @@
         <v>794</v>
       </c>
       <c r="H282" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I282" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11148,7 +11145,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F283" t="s">
         <v>653</v>
@@ -11157,10 +11154,10 @@
         <v>745</v>
       </c>
       <c r="H283" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="I283" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11174,7 +11171,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F284" t="s">
         <v>654</v>
@@ -11183,10 +11180,10 @@
         <v>750</v>
       </c>
       <c r="H284" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I284" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11200,7 +11197,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F285" t="s">
         <v>655</v>
@@ -11209,10 +11206,10 @@
         <v>750</v>
       </c>
       <c r="H285" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="I285" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11226,7 +11223,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F286" t="s">
         <v>656</v>
@@ -11235,10 +11232,10 @@
         <v>882</v>
       </c>
       <c r="H286" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I286" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11252,7 +11249,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F287" t="s">
         <v>657</v>
@@ -11261,10 +11258,10 @@
         <v>900</v>
       </c>
       <c r="H287" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I287" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11278,7 +11275,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F288" t="s">
         <v>658</v>
@@ -11287,10 +11284,10 @@
         <v>934</v>
       </c>
       <c r="H288" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I288" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11304,7 +11301,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F289" t="s">
         <v>659</v>
@@ -11313,10 +11310,10 @@
         <v>923</v>
       </c>
       <c r="H289" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="I289" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11330,7 +11327,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F290" t="s">
         <v>660</v>
@@ -11339,10 +11336,10 @@
         <v>935</v>
       </c>
       <c r="H290" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I290" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11356,7 +11353,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F291" t="s">
         <v>661</v>
@@ -11365,10 +11362,10 @@
         <v>936</v>
       </c>
       <c r="H291" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I291" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11382,7 +11379,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F292" t="s">
         <v>662</v>
@@ -11391,10 +11388,10 @@
         <v>741</v>
       </c>
       <c r="H292" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I292" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11408,7 +11405,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F293" t="s">
         <v>663</v>
@@ -11417,10 +11414,10 @@
         <v>937</v>
       </c>
       <c r="H293" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I293" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11434,7 +11431,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F294" t="s">
         <v>664</v>
@@ -11443,10 +11440,10 @@
         <v>745</v>
       </c>
       <c r="H294" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I294" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11460,7 +11457,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F295" t="s">
         <v>665</v>
@@ -11469,10 +11466,10 @@
         <v>750</v>
       </c>
       <c r="H295" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I295" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11486,7 +11483,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F296" t="s">
         <v>666</v>
@@ -11495,10 +11492,10 @@
         <v>750</v>
       </c>
       <c r="H296" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I296" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11512,7 +11509,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F297" t="s">
         <v>667</v>
@@ -11521,10 +11518,10 @@
         <v>750</v>
       </c>
       <c r="H297" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I297" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11541,7 +11538,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F298" t="s">
         <v>668</v>
@@ -11550,10 +11547,10 @@
         <v>938</v>
       </c>
       <c r="H298" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I298" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11570,7 +11567,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F299" t="s">
         <v>669</v>
@@ -11579,10 +11576,10 @@
         <v>939</v>
       </c>
       <c r="H299" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I299" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11599,7 +11596,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F300" t="s">
         <v>670</v>
@@ -11608,10 +11605,10 @@
         <v>940</v>
       </c>
       <c r="H300" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I300" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11625,7 +11622,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F301" t="s">
         <v>671</v>
@@ -11634,10 +11631,10 @@
         <v>941</v>
       </c>
       <c r="H301" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I301" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11651,7 +11648,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F302" t="s">
         <v>672</v>
@@ -11660,10 +11657,10 @@
         <v>745</v>
       </c>
       <c r="H302" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I302" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11677,7 +11674,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F303" t="s">
         <v>673</v>
@@ -11686,10 +11683,10 @@
         <v>745</v>
       </c>
       <c r="H303" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I303" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11703,7 +11700,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F304" t="s">
         <v>674</v>
@@ -11712,10 +11709,10 @@
         <v>942</v>
       </c>
       <c r="H304" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I304" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11729,7 +11726,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F305" t="s">
         <v>675</v>
@@ -11738,10 +11735,10 @@
         <v>809</v>
       </c>
       <c r="H305" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I305" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11755,7 +11752,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F306" t="s">
         <v>676</v>
@@ -11764,10 +11761,10 @@
         <v>943</v>
       </c>
       <c r="H306" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I306" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11781,7 +11778,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F307" t="s">
         <v>677</v>
@@ -11790,10 +11787,10 @@
         <v>944</v>
       </c>
       <c r="H307" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I307" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11807,7 +11804,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F308" t="s">
         <v>678</v>
@@ -11816,10 +11813,10 @@
         <v>809</v>
       </c>
       <c r="H308" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I308" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11833,7 +11830,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F309" t="s">
         <v>679</v>
@@ -11842,10 +11839,10 @@
         <v>809</v>
       </c>
       <c r="H309" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I309" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11859,7 +11856,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F310" t="s">
         <v>680</v>
@@ -11868,10 +11865,10 @@
         <v>945</v>
       </c>
       <c r="H310" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I310" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -11885,7 +11882,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F311" t="s">
         <v>681</v>
@@ -11894,10 +11891,10 @@
         <v>946</v>
       </c>
       <c r="H311" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I311" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -11911,7 +11908,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F312" t="s">
         <v>682</v>
@@ -11920,10 +11917,10 @@
         <v>947</v>
       </c>
       <c r="H312" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I312" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -11937,7 +11934,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F313" t="s">
         <v>683</v>
@@ -11946,10 +11943,10 @@
         <v>804</v>
       </c>
       <c r="H313" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I313" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -11963,7 +11960,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F314" t="s">
         <v>684</v>
@@ -11972,10 +11969,10 @@
         <v>948</v>
       </c>
       <c r="H314" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I314" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -11989,7 +11986,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F315" t="s">
         <v>685</v>
@@ -11998,10 +11995,10 @@
         <v>750</v>
       </c>
       <c r="H315" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I315" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12015,7 +12012,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F316" t="s">
         <v>686</v>
@@ -12024,10 +12021,10 @@
         <v>949</v>
       </c>
       <c r="H316" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I316" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12041,7 +12038,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F317" t="s">
         <v>687</v>
@@ -12050,10 +12047,10 @@
         <v>950</v>
       </c>
       <c r="H317" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I317" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12067,7 +12064,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F318" t="s">
         <v>688</v>
@@ -12076,10 +12073,10 @@
         <v>951</v>
       </c>
       <c r="H318" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I318" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12093,7 +12090,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F319" t="s">
         <v>689</v>
@@ -12102,10 +12099,10 @@
         <v>809</v>
       </c>
       <c r="H319" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I319" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12119,7 +12116,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F320" t="s">
         <v>690</v>
@@ -12128,10 +12125,10 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I320" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12145,7 +12142,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F321" t="s">
         <v>691</v>
@@ -12154,10 +12151,10 @@
         <v>745</v>
       </c>
       <c r="H321" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I321" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12171,7 +12168,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F322" t="s">
         <v>692</v>
@@ -12180,10 +12177,10 @@
         <v>745</v>
       </c>
       <c r="H322" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I322" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12197,7 +12194,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F323" t="s">
         <v>693</v>
@@ -12206,10 +12203,10 @@
         <v>745</v>
       </c>
       <c r="H323" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I323" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12223,7 +12220,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F324" t="s">
         <v>694</v>
@@ -12232,10 +12229,10 @@
         <v>750</v>
       </c>
       <c r="H324" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I324" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12252,7 +12249,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F325" t="s">
         <v>695</v>
@@ -12261,10 +12258,10 @@
         <v>953</v>
       </c>
       <c r="H325" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I325" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12281,7 +12278,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F326" t="s">
         <v>696</v>
@@ -12290,10 +12287,10 @@
         <v>954</v>
       </c>
       <c r="H326" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I326" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12310,7 +12307,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F327" t="s">
         <v>697</v>
@@ -12319,10 +12316,10 @@
         <v>930</v>
       </c>
       <c r="H327" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I327" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12339,7 +12336,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F328" t="s">
         <v>698</v>
@@ -12348,10 +12345,10 @@
         <v>809</v>
       </c>
       <c r="H328" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I328" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12368,7 +12365,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F329" t="s">
         <v>699</v>
@@ -12377,10 +12374,10 @@
         <v>809</v>
       </c>
       <c r="H329" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I329" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12397,7 +12394,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F330" t="s">
         <v>700</v>
@@ -12406,10 +12403,10 @@
         <v>955</v>
       </c>
       <c r="H330" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="I330" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12426,7 +12423,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F331" t="s">
         <v>701</v>
@@ -12435,10 +12432,10 @@
         <v>956</v>
       </c>
       <c r="H331" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="I331" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12455,7 +12452,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F332" t="s">
         <v>702</v>
@@ -12464,10 +12461,10 @@
         <v>957</v>
       </c>
       <c r="H332" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="I332" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12481,7 +12478,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F333" t="s">
         <v>703</v>
@@ -12490,10 +12487,10 @@
         <v>958</v>
       </c>
       <c r="H333" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I333" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12507,7 +12504,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F334" t="s">
         <v>704</v>
@@ -12516,10 +12513,10 @@
         <v>958</v>
       </c>
       <c r="H334" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I334" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12533,7 +12530,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F335" t="s">
         <v>705</v>
@@ -12542,10 +12539,10 @@
         <v>750</v>
       </c>
       <c r="H335" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I335" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12559,7 +12556,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F336" t="s">
         <v>706</v>
@@ -12568,10 +12565,10 @@
         <v>745</v>
       </c>
       <c r="H336" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I336" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
@@ -12585,7 +12582,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F337" t="s">
         <v>707</v>
@@ -12594,10 +12591,10 @@
         <v>958</v>
       </c>
       <c r="H337" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I337" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
@@ -12611,7 +12608,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F338" t="s">
         <v>708</v>
@@ -12620,10 +12617,10 @@
         <v>745</v>
       </c>
       <c r="H338" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I338" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
@@ -12637,7 +12634,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F339" t="s">
         <v>709</v>
@@ -12646,10 +12643,10 @@
         <v>750</v>
       </c>
       <c r="H339" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I339" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
@@ -12663,7 +12660,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F340" t="s">
         <v>710</v>
@@ -12672,10 +12669,10 @@
         <v>959</v>
       </c>
       <c r="H340" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I340" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
@@ -12689,7 +12686,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F341" t="s">
         <v>711</v>
@@ -12698,10 +12695,10 @@
         <v>960</v>
       </c>
       <c r="H341" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I341" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
@@ -12715,7 +12712,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F342" t="s">
         <v>712</v>
@@ -12724,10 +12721,10 @@
         <v>961</v>
       </c>
       <c r="H342" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I342" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
@@ -12741,7 +12738,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F343" t="s">
         <v>713</v>
@@ -12750,10 +12747,10 @@
         <v>962</v>
       </c>
       <c r="H343" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I343" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
@@ -12767,7 +12764,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F344" t="s">
         <v>714</v>
@@ -12776,10 +12773,10 @@
         <v>963</v>
       </c>
       <c r="H344" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I344" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
@@ -12793,7 +12790,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F345" t="s">
         <v>715</v>
@@ -12802,10 +12799,10 @@
         <v>964</v>
       </c>
       <c r="H345" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I345" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
@@ -12819,7 +12816,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F346" t="s">
         <v>716</v>
@@ -12828,10 +12825,10 @@
         <v>965</v>
       </c>
       <c r="H346" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I346" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
@@ -12845,16 +12842,16 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F347" t="s">
         <v>717</v>
       </c>
       <c r="H347" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I347" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
@@ -12868,7 +12865,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F348" t="s">
         <v>718</v>
@@ -12877,16 +12874,16 @@
         <v>743</v>
       </c>
       <c r="H348" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="I348" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="K348" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L348" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
@@ -12900,7 +12897,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F349" t="s">
         <v>719</v>
@@ -12909,10 +12906,10 @@
         <v>885</v>
       </c>
       <c r="H349" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I349" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
@@ -12926,7 +12923,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F350" t="s">
         <v>720</v>
@@ -12935,10 +12932,10 @@
         <v>893</v>
       </c>
       <c r="H350" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I350" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
@@ -12952,7 +12949,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F351" t="s">
         <v>721</v>
@@ -12961,10 +12958,10 @@
         <v>966</v>
       </c>
       <c r="H351" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I351" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
@@ -12978,7 +12975,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F352" t="s">
         <v>716</v>
@@ -12987,10 +12984,10 @@
         <v>967</v>
       </c>
       <c r="H352" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I352" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13004,7 +13001,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F353" t="s">
         <v>718</v>
@@ -13013,16 +13010,16 @@
         <v>743</v>
       </c>
       <c r="H353" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I353" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="K353" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="L353" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13036,7 +13033,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F354" t="s">
         <v>722</v>
@@ -13045,10 +13042,10 @@
         <v>750</v>
       </c>
       <c r="H354" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I354" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13062,7 +13059,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F355" t="s">
         <v>723</v>
@@ -13071,10 +13068,10 @@
         <v>745</v>
       </c>
       <c r="H355" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I355" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13088,7 +13085,7 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F356" t="s">
         <v>724</v>
@@ -13097,10 +13094,10 @@
         <v>968</v>
       </c>
       <c r="H356" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I356" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13114,7 +13111,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F357" t="s">
         <v>725</v>
@@ -13123,10 +13120,10 @@
         <v>857</v>
       </c>
       <c r="H357" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I357" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13140,7 +13137,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F358" t="s">
         <v>726</v>
@@ -13149,16 +13146,16 @@
         <v>969</v>
       </c>
       <c r="H358" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I358" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="K358" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="L358" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13172,7 +13169,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F359" t="s">
         <v>727</v>
@@ -13181,16 +13178,16 @@
         <v>970</v>
       </c>
       <c r="H359" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I359" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="K359" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="L359" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13204,7 +13201,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F360" t="s">
         <v>728</v>
@@ -13213,10 +13210,10 @@
         <v>745</v>
       </c>
       <c r="H360" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I360" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13230,7 +13227,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F361" t="s">
         <v>729</v>
@@ -13239,10 +13236,10 @@
         <v>750</v>
       </c>
       <c r="H361" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I361" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13256,7 +13253,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F362" t="s">
         <v>730</v>
@@ -13265,10 +13262,10 @@
         <v>971</v>
       </c>
       <c r="H362" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I362" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13282,7 +13279,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F363" t="s">
         <v>731</v>
@@ -13291,10 +13288,10 @@
         <v>972</v>
       </c>
       <c r="H363" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="I363" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13308,7 +13305,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F364" t="s">
         <v>732</v>
@@ -13317,10 +13314,10 @@
         <v>743</v>
       </c>
       <c r="H364" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="I364" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -13334,7 +13331,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F365" t="s">
         <v>733</v>
@@ -13343,10 +13340,10 @@
         <v>745</v>
       </c>
       <c r="H365" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="I365" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13360,7 +13357,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F366" t="s">
         <v>734</v>
@@ -13369,10 +13366,10 @@
         <v>750</v>
       </c>
       <c r="H366" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="I366" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -13386,7 +13383,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F367" t="s">
         <v>735</v>
@@ -13395,13 +13392,13 @@
         <v>745</v>
       </c>
       <c r="H367" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I367" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J367" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -13415,7 +13412,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F368" t="s">
         <v>736</v>
@@ -13424,13 +13421,13 @@
         <v>743</v>
       </c>
       <c r="H368" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I368" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J368" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -13444,7 +13441,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F369" t="s">
         <v>737</v>
@@ -13453,13 +13450,13 @@
         <v>745</v>
       </c>
       <c r="H369" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I369" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J369" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -13473,7 +13470,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F370" t="s">
         <v>738</v>
@@ -13482,13 +13479,13 @@
         <v>973</v>
       </c>
       <c r="H370" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I370" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J370" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -13502,7 +13499,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="F371" t="s">
         <v>739</v>
@@ -13511,13 +13508,13 @@
         <v>741</v>
       </c>
       <c r="H371" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I371" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="J371" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
